--- a/inst/extdata/Hannon-Example/example-metadata.xlsx
+++ b/inst/extdata/Hannon-Example/example-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\EDIutils\data-raw\Hannon-Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600932CA-8A7D-4C45-A3BA-2A8CC1F862F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C8CAE4-9306-4393-913F-14656C4A6B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" tabRatio="834" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="-16410" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="184">
   <si>
     <t>first_name</t>
   </si>
@@ -494,9 +494,6 @@
     <t>CCO</t>
   </si>
   <si>
-    <t>project_title</t>
-  </si>
-  <si>
     <t xml:space="preserve">Any additional comments describing the data collected </t>
   </si>
   <si>
@@ -555,9 +552,6 @@
   </si>
   <si>
     <t>The visability converted to meters</t>
-  </si>
-  <si>
-    <t>CVPIA Salmonid Habitat Monitoring Project</t>
   </si>
   <si>
     <t xml:space="preserve">The visability in feet measeured using a secchi disk </t>
@@ -1080,21 +1074,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
@@ -1204,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>69</v>
@@ -1248,7 +1242,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>82</v>
@@ -1271,13 +1265,13 @@
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>87</v>
@@ -1289,13 +1283,13 @@
     </row>
     <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>87</v>
@@ -1313,7 +1307,7 @@
         <v>85</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>86</v>
@@ -1330,7 +1324,7 @@
         <v>89</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>86</v>
@@ -1344,25 +1338,25 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="2">
         <v>88</v>
@@ -1379,7 +1373,7 @@
         <v>92</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>86</v>
@@ -1416,22 +1410,22 @@
         <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>105</v>
@@ -1451,7 +1445,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>86</v>
@@ -1468,7 +1462,7 @@
         <v>101</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>102</v>
@@ -1494,13 +1488,13 @@
     </row>
     <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>112</v>
@@ -1512,7 +1506,7 @@
         <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>105</v>
@@ -1526,25 +1520,25 @@
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C14" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>105</v>
@@ -1564,7 +1558,7 @@
         <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>86</v>
@@ -1581,7 +1575,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>86</v>
@@ -1598,7 +1592,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>112</v>
@@ -1624,13 +1618,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>112</v>
@@ -1662,7 +1656,7 @@
         <v>116</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>112</v>
@@ -1694,7 +1688,7 @@
         <v>118</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>112</v>
@@ -1726,7 +1720,7 @@
         <v>120</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>112</v>
@@ -1755,10 +1749,10 @@
         <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>112</v>
@@ -1787,10 +1781,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>112</v>
@@ -1819,13 +1813,13 @@
         <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>87</v>
@@ -1839,7 +1833,7 @@
         <v>125</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>112</v>
@@ -1851,7 +1845,7 @@
         <v>112</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>105</v>
@@ -2180,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,81 +2331,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC0791-3488-4AA1-946D-D16C61358F1D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
       <c r="E2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="10"/>
-      <c r="G3" s="10"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E5" xr:uid="{87D8C41F-E5D3-4B3A-821F-C374ECE1C22E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5" xr:uid="{87D8C41F-E5D3-4B3A-821F-C374ECE1C22E}">
       <formula1>"creator,field technician,program founder,other,associate,reviewer,researcher,principal investigator,lab technician"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{7EED9AF2-05B0-4782-BF99-E71B1E85279C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7EED9AF2-05B0-4782-BF99-E71B1E85279C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2422,7 +2410,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/Hannon-Example/example-metadata.xlsx
+++ b/inst/extdata/Hannon-Example/example-metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\EDIutils\data-raw\Hannon-Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\EDIutils\inst\extdata\Hannon-Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C8CAE4-9306-4393-913F-14656C4A6B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A161DD29-F1D5-4EF7-A6C6-D43A800690D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="-16410" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5340" yWindow="-13980" windowWidth="20415" windowHeight="10830" tabRatio="834" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -161,15 +161,6 @@
     <t>funding_description</t>
   </si>
   <si>
-    <t>Susan Strachan, USBR</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmonid Spawning and Rearing Habitat Restoration in the Sacramento River </t>
-  </si>
-  <si>
     <t xml:space="preserve">status </t>
   </si>
   <si>
@@ -588,13 +579,22 @@
   </si>
   <si>
     <t>tabular</t>
+  </si>
+  <si>
+    <t>R14AC00096</t>
+  </si>
+  <si>
+    <t>CA Natural Resources Agency - Sac River Salmonid Spawning and Rearing Habitat Restoration</t>
+  </si>
+  <si>
+    <t>USBR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -631,6 +631,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -646,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -654,12 +660,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4D4D4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD4D4D4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD4D4D4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD4D4D4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,6 +701,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1074,21 +1098,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1115,44 +1139,44 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1192,69 +1216,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M2" s="6">
         <v>42019</v>
@@ -1265,16 +1289,16 @@
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1283,16 +1307,16 @@
     </row>
     <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1301,62 +1325,62 @@
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="M7" s="2">
         <v>88</v>
@@ -1367,68 +1391,68 @@
     </row>
     <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2">
         <v>0.4</v>
@@ -1439,45 +1463,45 @@
     </row>
     <row r="11" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="M12" s="2">
         <v>44</v>
@@ -1488,28 +1512,28 @@
     </row>
     <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C13" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1520,28 +1544,28 @@
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M14" s="2">
         <v>0.45</v>
@@ -1552,62 +1576,62 @@
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -1618,28 +1642,28 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -1650,28 +1674,28 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -1682,28 +1706,28 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -1714,28 +1738,28 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -1746,28 +1770,28 @@
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -1778,28 +1802,28 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -1810,45 +1834,45 @@
     </row>
     <row r="24" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -1900,13 +1924,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,10 +1960,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,10 +1982,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,120 +1993,120 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,7 +2344,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC0791-3488-4AA1-946D-D16C61358F1D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2378,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -2409,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2418,12 +2442,12 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="8"/>
     <col min="6" max="6" width="17.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -2443,18 +2467,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="12">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>183</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -2467,7 +2489,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2486,18 +2508,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2532,30 +2554,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>-122.448217</v>
